--- a/dictionaries/urban_ath/1_1/1_1_yearly_rep.xlsx
+++ b/dictionaries/urban_ath/1_1/1_1_yearly_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\ATHLETE\DOCUMENTS\dictionaries\jose_dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{10B6F0B9-62B0-4755-AEEA-8977DF2CF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1225493A-849D-483A-9EC4-9C2CD8DE564C}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{10B6F0B9-62B0-4755-AEEA-8977DF2CF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFDB028B-6D10-4765-BCA8-4661D48A889D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -1466,7 +1469,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1491,7 +1494,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -1917,7 +1919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMH1772"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
@@ -6370,7 +6372,7 @@
       <c r="B97" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="16" t="s">
+      <c r="C97" t="s">
         <v>217</v>
       </c>
       <c r="D97" t="s">
@@ -6384,7 +6386,7 @@
       <c r="B98" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="16" t="s">
+      <c r="C98" t="s">
         <v>220</v>
       </c>
       <c r="D98" t="s">
@@ -11733,8 +11735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -12615,7 +12617,7 @@
         <v>15</v>
       </c>
       <c r="B63">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C63" s="10" t="b">
         <v>0</v>

--- a/dictionaries/urban_ath/1_1/1_1_yearly_rep.xlsx
+++ b/dictionaries/urban_ath/1_1/1_1_yearly_rep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\PROJECTS\ATHLETE\DOCUMENTS\dictionaries\jose_dictionaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{10B6F0B9-62B0-4755-AEEA-8977DF2CF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFDB028B-6D10-4765-BCA8-4661D48A889D}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{10B6F0B9-62B0-4755-AEEA-8977DF2CF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C723537-F998-4BEA-AF8E-F46C2EDC00A7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
     <t>ath_blueyn300_</t>
   </si>
   <si>
-    <t>binary</t>
+    <t>boolean</t>
   </si>
   <si>
     <t>is there a blue space  &gt; 5,000 m2 in a distance of 300 m? at # year</t>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMH1772"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75"/>
@@ -11721,7 +11721,7 @@
   </sheetData>
   <autoFilter ref="A1:D104" xr:uid="{AF393D00-D786-4826-A0C4-1A75D9C3171B}"/>
   <dataValidations count="1">
-    <dataValidation type="list" showErrorMessage="1" sqref="C7:C37 B4:B190 C44:C99 C102 C105" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" showErrorMessage="1" sqref="C7:C37 C105 C44:C99 C102 B4:B190" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"integer,decimal,text,binary,locale,boolean,datetime,date"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11735,7 +11735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
